--- a/medias/机种属性.xlsx
+++ b/medias/机种属性.xlsx
@@ -128,7 +128,7 @@
     <t xml:space="preserve">机种/项目</t>
   </si>
   <si>
-    <t xml:space="preserve">工段</t>
+    <t xml:space="preserve">工序</t>
   </si>
   <si>
     <t xml:space="preserve">资源编码</t>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
